--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Clec11a</t>
   </si>
   <si>
     <t>Itga10</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H2">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I2">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J2">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5137036666666667</v>
+        <v>0.970007</v>
       </c>
       <c r="N2">
-        <v>1.541111</v>
+        <v>2.910021</v>
       </c>
       <c r="O2">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="P2">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="Q2">
-        <v>0.1471250726024445</v>
+        <v>0.148331530426</v>
       </c>
       <c r="R2">
-        <v>1.324125653422</v>
+        <v>1.334983773834</v>
       </c>
       <c r="S2">
-        <v>0.001537700971344866</v>
+        <v>0.001339944117439946</v>
       </c>
       <c r="T2">
-        <v>0.001537700971344865</v>
+        <v>0.001339944117439946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H3">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I3">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J3">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.940536</v>
       </c>
       <c r="O3">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070358</v>
       </c>
       <c r="P3">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070357</v>
       </c>
       <c r="Q3">
-        <v>0.6625913791413334</v>
+        <v>0.353777628016</v>
       </c>
       <c r="R3">
-        <v>5.963322412272</v>
+        <v>3.183998652144</v>
       </c>
       <c r="S3">
-        <v>0.006925178620393994</v>
+        <v>0.003195829303321237</v>
       </c>
       <c r="T3">
-        <v>0.006925178620393992</v>
+        <v>0.003195829303321237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H4">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I4">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J4">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.476278666666667</v>
+        <v>1.616694666666667</v>
       </c>
       <c r="N4">
-        <v>4.428836</v>
+        <v>4.850084</v>
       </c>
       <c r="O4">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510337</v>
       </c>
       <c r="P4">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510336</v>
       </c>
       <c r="Q4">
-        <v>0.4228071943191112</v>
+        <v>0.2472217150373333</v>
       </c>
       <c r="R4">
-        <v>3.805264748872001</v>
+        <v>2.224995435336</v>
       </c>
       <c r="S4">
-        <v>0.004419036279104562</v>
+        <v>0.002233262758203327</v>
       </c>
       <c r="T4">
-        <v>0.00441903627910456</v>
+        <v>0.002233262758203326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2864006666666667</v>
+        <v>0.152918</v>
       </c>
       <c r="H5">
-        <v>0.859202</v>
+        <v>0.458754</v>
       </c>
       <c r="I5">
-        <v>0.0133698428367118</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="J5">
-        <v>0.01336984283671179</v>
+        <v>0.007158013163202275</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.163003</v>
+        <v>0.2815866666666667</v>
       </c>
       <c r="N5">
-        <v>0.489009</v>
+        <v>0.8447600000000001</v>
       </c>
       <c r="O5">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589489</v>
       </c>
       <c r="P5">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589488</v>
       </c>
       <c r="Q5">
-        <v>0.04668416786866667</v>
+        <v>0.04305966989333334</v>
       </c>
       <c r="R5">
-        <v>0.420157510818</v>
+        <v>0.38753702904</v>
       </c>
       <c r="S5">
-        <v>0.0004879269658683777</v>
+        <v>0.0003889769842377662</v>
       </c>
       <c r="T5">
-        <v>0.0004879269658683776</v>
+        <v>0.0003889769842377661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H6">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I6">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J6">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5137036666666667</v>
+        <v>0.970007</v>
       </c>
       <c r="N6">
-        <v>1.541111</v>
+        <v>2.910021</v>
       </c>
       <c r="O6">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="P6">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="Q6">
-        <v>10.69829735558711</v>
+        <v>20.20118600736934</v>
       </c>
       <c r="R6">
-        <v>96.28467620028398</v>
+        <v>181.810674066324</v>
       </c>
       <c r="S6">
-        <v>0.1118149472719389</v>
+        <v>0.1824862204154812</v>
       </c>
       <c r="T6">
-        <v>0.1118149472719388</v>
+        <v>0.1824862204154811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H7">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I7">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J7">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>6.940536</v>
       </c>
       <c r="O7">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070358</v>
       </c>
       <c r="P7">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070357</v>
       </c>
       <c r="Q7">
-        <v>48.18077214110932</v>
+        <v>48.18077214110934</v>
       </c>
       <c r="R7">
-        <v>433.6269492699839</v>
+        <v>433.626949269984</v>
       </c>
       <c r="S7">
-        <v>0.5035689621831221</v>
+        <v>0.4352381588646893</v>
       </c>
       <c r="T7">
-        <v>0.503568962183122</v>
+        <v>0.4352381588646892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H8">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I8">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J8">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.476278666666667</v>
+        <v>1.616694666666667</v>
       </c>
       <c r="N8">
-        <v>4.428836</v>
+        <v>4.850084</v>
       </c>
       <c r="O8">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510337</v>
       </c>
       <c r="P8">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510336</v>
       </c>
       <c r="Q8">
-        <v>30.74470590835377</v>
+        <v>33.66898350058845</v>
       </c>
       <c r="R8">
-        <v>276.702353175184</v>
+        <v>303.020851505296</v>
       </c>
       <c r="S8">
-        <v>0.3213331575831103</v>
+        <v>0.3041467734623216</v>
       </c>
       <c r="T8">
-        <v>0.3213331575831103</v>
+        <v>0.3041467734623215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.82581466666666</v>
+        <v>20.82581466666667</v>
       </c>
       <c r="H9">
-        <v>62.47744399999999</v>
+        <v>62.47744400000001</v>
       </c>
       <c r="I9">
-        <v>0.9721970003787959</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="J9">
-        <v>0.9721970003787958</v>
+        <v>0.9748457050079848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.163003</v>
+        <v>0.2815866666666667</v>
       </c>
       <c r="N9">
-        <v>0.489009</v>
+        <v>0.8447600000000001</v>
       </c>
       <c r="O9">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589489</v>
       </c>
       <c r="P9">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589488</v>
       </c>
       <c r="Q9">
-        <v>3.394670268110666</v>
+        <v>5.864271732604446</v>
       </c>
       <c r="R9">
-        <v>30.552032412996</v>
+        <v>52.77844559344001</v>
       </c>
       <c r="S9">
-        <v>0.03547993334062476</v>
+        <v>0.05297455226549289</v>
       </c>
       <c r="T9">
-        <v>0.03547993334062475</v>
+        <v>0.05297455226549288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3091783333333333</v>
+        <v>0.200477</v>
       </c>
       <c r="H10">
-        <v>0.927535</v>
+        <v>0.601431</v>
       </c>
       <c r="I10">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="J10">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5137036666666667</v>
+        <v>0.970007</v>
       </c>
       <c r="N10">
-        <v>1.541111</v>
+        <v>2.910021</v>
       </c>
       <c r="O10">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="P10">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="Q10">
-        <v>0.1588260434872222</v>
+        <v>0.194464093339</v>
       </c>
       <c r="R10">
-        <v>1.429434391385</v>
+        <v>1.750176840051</v>
       </c>
       <c r="S10">
-        <v>0.001659995519629097</v>
+        <v>0.001756679899240168</v>
       </c>
       <c r="T10">
-        <v>0.001659995519629097</v>
+        <v>0.001756679899240168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3091783333333333</v>
+        <v>0.200477</v>
       </c>
       <c r="H11">
-        <v>0.927535</v>
+        <v>0.601431</v>
       </c>
       <c r="I11">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="J11">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.940536</v>
       </c>
       <c r="O11">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070358</v>
       </c>
       <c r="P11">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070357</v>
       </c>
       <c r="Q11">
-        <v>0.7152877843066666</v>
+        <v>0.463805945224</v>
       </c>
       <c r="R11">
-        <v>6.43759005876</v>
+        <v>4.174253507016</v>
       </c>
       <c r="S11">
-        <v>0.007475943435498454</v>
+        <v>0.004189763606913063</v>
       </c>
       <c r="T11">
-        <v>0.007475943435498452</v>
+        <v>0.004189763606913062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3091783333333333</v>
+        <v>0.200477</v>
       </c>
       <c r="H12">
-        <v>0.927535</v>
+        <v>0.601431</v>
       </c>
       <c r="I12">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="J12">
-        <v>0.01443315678449244</v>
+        <v>0.009384225564807953</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.476278666666667</v>
+        <v>1.616694666666667</v>
       </c>
       <c r="N12">
-        <v>4.428836</v>
+        <v>4.850084</v>
       </c>
       <c r="O12">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510337</v>
       </c>
       <c r="P12">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510336</v>
       </c>
       <c r="Q12">
-        <v>0.4564333776955556</v>
+        <v>0.3241100966893333</v>
       </c>
       <c r="R12">
-        <v>4.10790039926</v>
+        <v>2.916990870204</v>
       </c>
       <c r="S12">
-        <v>0.004770485654292295</v>
+        <v>0.002927829411686841</v>
       </c>
       <c r="T12">
-        <v>0.004770485654292294</v>
+        <v>0.00292782941168684</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.200477</v>
+      </c>
+      <c r="H13">
+        <v>0.601431</v>
+      </c>
+      <c r="I13">
+        <v>0.009384225564807953</v>
+      </c>
+      <c r="J13">
+        <v>0.009384225564807953</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2815866666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.8447600000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.05434147372589489</v>
+      </c>
+      <c r="P13">
+        <v>0.05434147372589488</v>
+      </c>
+      <c r="Q13">
+        <v>0.05645165017333335</v>
+      </c>
+      <c r="R13">
+        <v>0.50806485156</v>
+      </c>
+      <c r="S13">
+        <v>0.0005099526469678825</v>
+      </c>
+      <c r="T13">
+        <v>0.0005099526469678824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.3091783333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.927535</v>
-      </c>
-      <c r="I13">
-        <v>0.01443315678449244</v>
-      </c>
-      <c r="J13">
-        <v>0.01443315678449244</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.163003</v>
-      </c>
-      <c r="N13">
-        <v>0.489009</v>
-      </c>
-      <c r="O13">
-        <v>0.03649459248156572</v>
-      </c>
-      <c r="P13">
-        <v>0.03649459248156572</v>
-      </c>
-      <c r="Q13">
-        <v>0.05039699586833334</v>
-      </c>
-      <c r="R13">
-        <v>0.453572962815</v>
-      </c>
-      <c r="S13">
-        <v>0.0005267321750725972</v>
-      </c>
-      <c r="T13">
-        <v>0.0005267321750725971</v>
+      <c r="G14">
+        <v>0.183981</v>
+      </c>
+      <c r="H14">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J14">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.970007</v>
+      </c>
+      <c r="N14">
+        <v>2.910021</v>
+      </c>
+      <c r="O14">
+        <v>0.1871949781160357</v>
+      </c>
+      <c r="P14">
+        <v>0.1871949781160357</v>
+      </c>
+      <c r="Q14">
+        <v>0.178462857867</v>
+      </c>
+      <c r="R14">
+        <v>1.606165720803</v>
+      </c>
+      <c r="S14">
+        <v>0.001612133683874486</v>
+      </c>
+      <c r="T14">
+        <v>0.001612133683874486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.183981</v>
+      </c>
+      <c r="H15">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J15">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.313512</v>
+      </c>
+      <c r="N15">
+        <v>6.940536</v>
+      </c>
+      <c r="O15">
+        <v>0.4464687659070358</v>
+      </c>
+      <c r="P15">
+        <v>0.4464687659070357</v>
+      </c>
+      <c r="Q15">
+        <v>0.4256422512720001</v>
+      </c>
+      <c r="R15">
+        <v>3.830780261448</v>
+      </c>
+      <c r="S15">
+        <v>0.003845014132112274</v>
+      </c>
+      <c r="T15">
+        <v>0.003845014132112273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.183981</v>
+      </c>
+      <c r="H16">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J16">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.616694666666667</v>
+      </c>
+      <c r="N16">
+        <v>4.850084</v>
+      </c>
+      <c r="O16">
+        <v>0.3119947822510337</v>
+      </c>
+      <c r="P16">
+        <v>0.3119947822510336</v>
+      </c>
+      <c r="Q16">
+        <v>0.2974411014680001</v>
+      </c>
+      <c r="R16">
+        <v>2.676969913212</v>
+      </c>
+      <c r="S16">
+        <v>0.002686916618821893</v>
+      </c>
+      <c r="T16">
+        <v>0.002686916618821892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.183981</v>
+      </c>
+      <c r="H17">
+        <v>0.5519430000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="J17">
+        <v>0.008612056264005009</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2815866666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.8447600000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.05434147372589489</v>
+      </c>
+      <c r="P17">
+        <v>0.05434147372589488</v>
+      </c>
+      <c r="Q17">
+        <v>0.05180659652000002</v>
+      </c>
+      <c r="R17">
+        <v>0.4662593686800001</v>
+      </c>
+      <c r="S17">
+        <v>0.0004679918291963567</v>
+      </c>
+      <c r="T17">
+        <v>0.0004679918291963566</v>
       </c>
     </row>
   </sheetData>
